--- a/assets/Real-Time_Generation-monthly_2015.xlsx
+++ b/assets/Real-Time_Generation-monthly_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irems\Documents\GitHub\emu660-spring2024-iremshasturk\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F193D372-E783-4A9B-8C1F-354237993F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C54436-C6EC-4221-B46F-0380F1F7C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real-Time Generation" sheetId="1" r:id="rId1"/>
@@ -92,49 +92,46 @@
     <t>Waste Heat</t>
   </si>
   <si>
-    <t>january</t>
-  </si>
-  <si>
-    <t>february</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>june</t>
-  </si>
-  <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>august</t>
-  </si>
-  <si>
-    <t>september</t>
-  </si>
-  <si>
-    <t>october</t>
-  </si>
-  <si>
-    <t>november</t>
-  </si>
-  <si>
-    <t>december</t>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,10 +161,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,15 +497,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -531,7 +525,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -587,7 +581,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
@@ -643,7 +637,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
@@ -699,7 +693,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4">
@@ -755,7 +749,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -811,7 +805,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -867,7 +861,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -923,7 +917,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8">
@@ -979,7 +973,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
@@ -1035,7 +1029,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
@@ -1091,7 +1085,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
@@ -1147,7 +1141,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
@@ -1203,7 +1197,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
@@ -1257,78 +1251,6 @@
       <c r="R13">
         <v>34442.999999999985</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
